--- a/data/train/tg_study.xlsx
+++ b/data/train/tg_study.xlsx
@@ -6452,7 +6452,7 @@
         <v>310.7139185928102</v>
       </c>
       <c r="C3" s="5">
-        <v>0.5579135417938232</v>
+        <v>0.557913541793823</v>
       </c>
       <c r="D3" s="5">
         <v>-0.04942531138658524</v>
